--- a/500all/speech_level/speeches_CHRG-114hhrg96275.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96275.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412463</t>
   </si>
   <si>
-    <t>Bob Gibbs</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibbs. Good morning. The Subcommittee on Water Resources and Environment will come to order.    We welcome our panels. We have two panels today, but we will first have some opening remarks.    The hearing today is about the Great Lakes Restoration Initiative. It's a review of progress and challenges in restoring the Great Lakes.    The Great Lakes, of course, are a vital source for both the United States and Canada to move goods; supply drinking water for industrial and agricultural purposes, a source of hydroelectric power, and swimming and other recreational activities.    But the industrialization and development of the Great Lakes over the past 200 years has had an impact on water quality in the Great Lakes.    The Great Lakes are a high priority to our Members from Minnesota, Wisconsin, Michigan, Illinois, Indiana, Ohio, Pennsylvania and New York, particularly in those districts that border the lakes. However, the Great Lakes are also important to our entire Nation.    The Great Lakes are the largest surface freshwater system on the earth, with 6 quadrillion gallons of water. The Great Lakes account for approximately 20 percent of the world's freshwater supply and approximately 90 percent of the U.S. freshwater supply.    Thirty-five million people live in the Great Lakes region, representing roughly one-tenth of the U.S. population and one-quarter of the Canadian population. The lakes are the primary water supply for most of these people.    The Great Lakes constitute the largest inland water transportation system in the world, and have played an important role in the economic development of both the United States and Canada.    According to some estimates, the Great Lakes help support more than $200 billion a year in economic activity in the region, and contribute nearly a quarter of the Nation's exports and 27 percent of the U.S. gross domestic product. Over 200 million tons of cargo are shipped annually through the Great Lakes.    The Great Lakes present a unique environmental challenge. Legacy issues, including the buildup of toxic substances in lake sediments in areas of concern, and the introduction of invasive plant and animal species, are impacting the Great Lakes. More than 180 invasive aquatic species have become established in the Great Lakes, including at least 25 major nonnative species of fish and zebra mussels, which invade and clog water intake pipes, costing water and electric generating utilities $100 million to $400 million a year in prevention and remediation efforts.    Efforts to improve the Great Lakes water quality and restore the health of the Great Lakes ecosystem are proceeding through cooperative efforts with Canada as well as through the efforts of numerous Federal, State, tribal, local, and private parties.    The EPA [Environmental Protection Agency], Army Corps of Engineers, Fish and Wildlife Service, the National Oceanic and Atmospheric Administration, the U.S. Geological Survey, the Natural Resources Conservation Service, the Great Lakes States, local communities, industry, and other parties all are involved. With so many parties involved in trying to restore the Great Lakes, coordination of the effort can be difficult.    To improve coordination, in 2004, the President signed an Executive order creating the Great Lakes Interagency Task Force. The Executive order called for the development of outcome-based goals like cleaner water, sustainable fisheries, and system biodiversity, and called on the task force to ensure Federal efforts are coordinated and target measurable results.    The task force, under the lead of EPA, brings together 11 Federal agencies responsible for administering more than 140 different programs in the Great Lakes region, to provide strategic direction on Federal policy, priorities, and programs for restoring the Great Lakes.    Congress has enacted more than 30 Federal laws specifically focused on Great Lakes restoration and there are currently more than 200 programs that provide funding and resources to Great Lakes States for restoration activities.    In 2010, the task force released an action plan, as part of the new Great Lakes Restoration Initiative, to accelerate efforts to protect and restore the Great Lakes. More than 2,000 projects have been funded to date through the first action plan.    In September 2014, the Federal agencies released an updated action plan II, which summarizes the actions that the Federal agencies plan to implement during fiscal years 2015 through 2019, using Great Lakes Restoration Initiative funding.    This action plan aims to strategically target the five biggest threats to the Great Lakes ecosystem and to accelerate progress toward long-term goals. The five focus areas in summary include: toxic substances, invasive species, nonpoint source pollution, habitat restoration, and accountability and education.    Since the beginning of the Great Lakes Restoration Initiative, there has been a concern voiced by some that restoration activities have slowed or even been halted due to a lack of coordination among the Federal agencies that encompass the task force. Other critiques include a lack of communication between the Federal task force and their partners in State governments.    In response to my requests, the Government Accountability Office conducted a review of Great Lakes Restoration Initiative implementation and prepared reports of its findings in 2013 and July of this year.    Our colleague, Congressman David Joyce, introduced H.R. 223 to amend the Great Lakes program provisions under section 118 of the Clean Water Act to formally authorize the Great Lakes Restoration Initiative for 5 years, and to carry out projects and activities for Great Lakes protection and restoration.    Under this legislation, the Environmental Protection Agency is to collaborate with other Federal partners, including the Great Lakes Interagency Task Force, to select the best combination of projects and activities for Great Lakes protection and restoration.    This hearing today is intended to review the progress of the Great Lakes Restoration Initiative and to hear from witnesses on the implementation of the GLRI program and the types of improvements that need to be made to the program.    I look forward to hearing from the witnesses, and at this time I recognize my ranking member from California, Mrs. Napolitano.</t>
   </si>
   <si>
     <t>400290</t>
   </si>
   <si>
-    <t>Grace F. Napolitano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Napolitano. Thank you, Chairman Gibbs, for today's hearing on the Great Lakes Restoration Initiative, and thus providing the subcommittee with a chance to review the progress made in the restoration of one of our Nation's greatest resources, the Great Lakes.    Welcome to our witnesses and I look forward to hearing your testimony and to engaging dialogue on this very successful program.    The Great Lakes Restoration Initiative, known as GLRI, was organized in 2010 to coordinate the multitude of efforts already underway to protect and restore the Great Lakes, the world's largest system of fresh surface water and the source of drinking water for over 40 million Americans.    As we can imagine, the economic importance of the Great Lakes to the country cannot be overstated. The 4.3 million recreational boats registered in the Great Lakes alone create nearly $16 billion in economic activities each year. That supports 107,000 jobs annually.    Specifically, the program was created to clean up toxins and address areas of concern, combat invasive species, of which I am very interested in how you combat the quagga mussel issue because that's California's biggest issue and some of the Western States; to protect watersheds from pollutant latent runoff; restore wetlands and track progress; education, especially on invasive species, I think; and collaboration with strategic partners, including State and local governments and other stakeholders.    During the first 5 years of this program, $1.68 billion of Federal funding was allocated to over 2,100 projects that were implemented to improve water quality, control or eradicate harmful, invasive species, and restore valuable ecosystems.    In that time and because of Federal support, the Great Lakes Restoration Initiative has enjoyed the following accomplishments:    Five areas of concern have been removed from the list of contaminated areas.    Forty-two beneficial use impairments in 17 areas of concern were removed.    Target level control populations have been reached for multiple invasive species, including the bighead carp, sea lamprey, and emerald ash borer. Interesting.    Federal and State local partners increased the number of acres of farmland enrolled in agricultural conservation programs in priority watersheds by more than 80 percent.    More than 100,000 acres of wetlands and 48,000 acres of coastal, upland and island habitat are now protected.    While much more work remains to be done, these are demonstrable successes, and I commend today's witnesses for their dedication to the success of this program.    In September 2013, GAO [U.S. Government Accountability Office] released a report recommending EPA develop a more comprehensive and useful progress assessment tool for demonstrating the program's accomplishment. Understand that we look at some of these things, and we want to understand it and not have to ask questions about what does it mean.    GAO found that the GLRI monitoring system at the time may have been deficient, but also found as GAO and others have noted that quantifying overall restoration progress in the Great Lakes is a very difficult task and that it's often impossible to link specific environmental changes to specific programs or projects, which some are long term.    Again, earlier this year the GAO concluded an extensive study of the use of these funds. It examined the amount of the funds available for projects and processes used by GLRI to identify projects and the GLRI's reporting tools.    I am very pleased to say that EPA took action to address--thank you very much--the recommendations made by the draft GAO report prior to the release of the report and, in doing so, established a new system for entering data and created new data control methods.    Having undertaken these efforts, EPA and its partners will be better able to track and demonstrate the success of the program.    So in the 5 short years since this program's inception, communities throughout the Great Lakes region have enjoyed measurable results that have made a difference in the lives of their citizens and their economy.    One might ask what has made the difference, and to answer this question, I point to the GAO report published in September 2004, which found that the lack of clearly defined organizational leadership posed a major obstacle and that coordinating existing restoration efforts across the many participating organizations was a significant challenge.    So we need to be able to address that so that we can understand it when we are able to go through and look at what improvements and what challenges have been addressed.    I would argue that today you have overcome these challenges. Simply put, this is one of the most influential, coordinated interagency efforts in the country and stands as an example of what we can achieve when multiple partners agree, work together toward a common goal, politics aside.    Again, I welcome our witnesses and thank you for your testimony.    And, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -76,27 +70,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Korleski</t>
-  </si>
-  <si>
     <t>Resources Conservation Service in Washington, DC.    Welcome, panelists, and Mr. Korleski, the floor is yours.    And pull it up closer. In this room sometimes it is hard to hear.    Mr. Korleski. Is the volume OK? Can everyone hear me?    Well, good morning, Chairman Gibbs, Ranking Member Napolitano, and members of the subcommittee. My name is Chris Korleski, and I am pleased to serve as the Director of U.S. EPA's Great Lakes National Program Office, or as we call it,     I am very pleased to be here this morning to discuss the remarkable progress that has been made under the Great Lakes Restoration Initiative, or as we know it, the GLRI.    The GLRI was launched in 2010 to accelerate efforts to protect and restore the largest system of freshwater in the world--to provide additional resources to make progress toward the most critical long-term goals for this important ecosystem.    Since its inception, the GLRI has been a catalyst for unprecedented Federal agency coordination to the GLRI Interagency Task Force and the GLRI Regional Working Group, both of which are led by EPA. This unprecedented coordination has led to unprecedented results.    During the first 5 years of the initiative, GLRI resources have supplemented agency-based budgets to fund over 2,600 projects in five focus areas.    Focus Area 1, toxic substances in areas of concern. Federal agencies and their partners delisted three areas of concern, what we call AOCs, and completed all of the physical work that will lead to the delisting of three additional AOCs. That is a major change from the 25 years before the initiative when only one AOC was cleaned up and delisted.    It is our hope that we can keep this momentum going and ultimately achieve the delisting of all the remaining AOCs.    Focus Area 2, invasive species. Federal agencies and their partners engaged in an unprecedented level of activity to prevent new introductions of invasive species, including Asian carp, into the Great Lakes ecosystem. Asian carp are a significant threat to the ecological health of the Great Lakes and its multibillion-dollar sports fishery, and the GLRI provides support to the Asian Carp Regional Coordinating Committee to prevent bighead and silver carp from becoming established in the Great Lakes ecosystem.    To date monitoring has not found any established, self-sustaining populations of silver or bighead carp in the Great Lakes. Nevertheless, the threat of Asian carp entering the Great Lakes continues, and the Federal partners are eager to continue the work necessary to keep them out of the Great Lakes.    Focus Area 3, nearshore health and nonpoint source pollution. Federal agencies and their partners targeted activities to reduce phosphorus runoff from farmland which contributes to harmful algal blooms in western Lake Erie, Saginaw Bay, and Green Bay.    Federal agencies used GLRI support to increase the number of acres of farmland enrolled in agricultural conservation programs in GLRI priority watersheds by more than 70 percent.    Focus Area 4, habitat and wildlife protection and restoration. Federal agencies and their partners protected, restored and enhanced more than 100,000 acres of wetlands and 48,000 acres of coastal, upland and island habitat. Over 500 barriers were removed or bypassed in Great Lakes tributaries enabling access by fish and other aquatic organisms to over 3,400 additional miles of river.    These activities have accelerated the restoration of native fish and wildlife populations to self-sustaining levels.    Focus Area 5, accountability, education, monitoring, evaluation, communication and partnerships. Maybe you can see why we changed the name in the next action plan.    Federal agencies and their partners implemented ``teach the teacher'' activities and helped science teachers throughout the basin incorporate Great Lakes-specific material into their class curricula. But what's next?    Well, the first 5 years of the GLRI have achieved remarkable progress. The Federal agencies are already well underway implementing the GLRI Action Plan II, which summarizes the actions that Federal agencies will implement during fiscal years 2015 through 2019. These actions will build on restoration and protection work carried out under the first action plan with a continuing focus on cleaning up AOCs, preventing and controlling invasive species, reducing nutrient runoff, and restoring habitat.    We have modified Focus Area 5, and while we will continue to educate educators about the Great Lakes, Focus Area 5 now more directly incorporates an adaptive management approach into the GLRI's implementation.    It also requires that GLRI projects take into account the need for resiliency in the face of climate change.    Action plan II is tighter and more focused than action plan I in large part because it incorporates suggestions for strengthening the GLRI that were contributed by the Great Lakes Advisory Board, U.S. EPA Science Advisory Board, GAO, the Congressional Research Service, States, tribes, municipalities, and the general public.    We are committed, devoted to improving the implementation of the initiative and have recently adopted new budgeting and planning processes that will provide for a closer working relationship between Federal agencies and their State and tribal partners to ensure that appropriate projects are being prioritized and implemented.    Thank you, Chairman Gibbs, Ranking Member Napolitano, and members of the committee. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you.    Mr. Gomez, the floor is yours.</t>
   </si>
   <si>
-    <t>Gomez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gomez. Chairman Gibbs, Ranking Member Napolitano, and members of the subcommittee, good morning. I am pleased to be here today to discuss our work on the Great Lakes Restoration Initiative.    The Great Lakes, as can be seen in the screens, is the largest system of freshwater in the world, and it provides economic and recreational benefits to millions of people. Decades of industrial and agricultural activities in the region have left a legacy of contamination.    In addition, more than 180 nonnative species have become established in the Great Lakes, some of which have caused extensive ecological and economic damage.    The Great Lakes Restoration Initiative, as has been noted, was created to accelerate restoration by addressing issues such as water quality contamination and invasive species that continue to threaten the health of the Great Lakes ecosystem. The restoration is overseen by the Great Lakes Interagency Task Force and is chaired by the Environmental Protection Agency.    So my statement today summarizes the results of our two reports on the topic. I would like to make three key points about the GLRI, the initiative: first, the funding and monitoring and reporting; two, the process used to identify restoration work; and, three, information available about Great Lakes restoration project activities and results.    The first point is that nearly all of the $1.68 billion in Federal funds in fiscal years 2010 to 2014 have been allocated, and as it can be seen in the next slide, EPA and the task force agencies have made funding available to a range of recipients. We found that the Great Lakes Interagency Task Force agencies conduct restoration work themselves or by awarding funds to recipients through financial agreements, such as grants, cooperative agreements or contracts.    EPA and the other 10 agencies have since expended $1.15 billion for over 2,100 projects.    With regard to monitoring and reporting, we found that some information on restoration projects in EPA's database is inaccurate and may not be complete, which may prevent EPA from producing comprehensive or useful assessments of progress.    We recommended that EPA capture more complete information on progress, which the agency did. In May of 2015, EPA replaced its old database with a new information system.    Second, with regards to the process for selecting each agency's Great Lakes restoration work, this process has evolved since fiscal year 2010 to emphasize interagency discussion. Originally, each agency made its own project and funding decisions in agreement with the task force.    Now, multiple agency subgroups discuss and decide what work should be done. In fiscal year 2012, the task force created subgroups to discuss and identify work on three priority issues. The first issue was cleaning up severely degraded locations, called areas of concern, which we have heard about already.    Number two is preventing and controlling invasive species.    And three is reducing nutrient runoff from agricultural areas.    According to EPA, the focus on priority issues allowed for two areas of concern, the White Lake and Deer Lake areas in Michigan, to be targeted for accelerated cleanup. Both were delisted in 2014.    Third, the task force has made some project information available to Congress and the public in three accomplishment reports and on its Web site.    In addition, individual agencies collect information on activities and results, although this information is not collected and reported by EPA.    Of the 19 projects that we reviewed, 8 reported results directly linked to restoration, such as improved methods for capturing sea lamprey, an invasive species that can kill up to 40 pounds of fish in its lifetime. The remaining 11 reported results that can be indirectly linked to restoration. That is, the results may contribute to restoration over time.    In summary, the U.S. has committed enormous resources to restore the health of the Great Lakes ecosystem with some progress. Currently the restoration effort is in a period of transition, as EPA and the task force agencies are using a new action plan, new subgroups to identify work in funding, and a new system to collect information on projects.    Great Lakes restoration is an ongoing, long-term effort. As such, it can benefit from continued congressional oversight.    Mr. Chairman, Ranking Member Napolitano, and members of the subcommittee, this completes my statement. I would be pleased to answer questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you.    Mr. Kramer, the floor is yours. Welcome.</t>
   </si>
   <si>
-    <t>Kramer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kramer. Thank you and good morning. Mr. Chairman, Ranking Member, and distinguished members of the subcommittee, thank you for the opportunity to appear before you today to discuss the Great Lakes Restoration Initiative and the role of the Natural Resources Conservation Service within the U.S. Department of Agriculture.    At NRCS, we know that voluntary private lands conservation is making a difference so that producers can sustain highly productive agriculture while making progress protecting and improving a Nation's natural resources. As Acting Regional Conservationist for the Northeast region, I have the privilege of serving multiple States, including Ohio and even Michigan.    I was raised on a farm in northwest Ohio and graduated from the Ohio State University with a bachelor's degree in agriculture. I have worked with NRCS in many capacities over 30 years, and I understand personally the conservation work my agency performs on private lands.    This is a great time for conservation, and I welcome the opportunity to share this with you today.    At NRCS, our conservationists work with State and local partners, as well as private organizations to deliver conservation, technical, and financial assistance to private landowners on a purely voluntary basis. In fiscal year 2014, NRCS provided technical assistance to over 135,000 customers nationwide to address natural resource objectives on almost 60 million acres of farm, ranch and forest land.    NRCS technical and financial assistance is delivered to private landowners primarily through programs authorized by the Farm bill, which include the Environmental Quality Incentives Program, the Conservation Stewardship Program, and the Agricultural Conservation Easement Program.    This assistance helps producers plan and implement a variety of conservation practices, such as cover crops, no-till, removing invasive species and restoring wetlands.    GLRI complements the significant investment made by NRCS within the Great Lakes region. Since 2010 and through 2014, GLRI has provided an additional $106 million in financial and technical assistance for conservation through the interagency agreement between NRCS and EPA. This was used to fund over 1,500 contracts with producers committing to implement conservation practices in over 300,000 acres within the Great Lakes Basin and to provide direct technical assistance to producers and landowners.    NRCS works very closely with partners across the country and in the Great Lakes to maximize the Federal investment and leverage that with non-Federal contributions. Within the context of GLRI, between fiscal years 2010 and 2014, NRCS has leveraged about $7 million of the GLRI funds in agreements with partners to increase the impact of the Federal investment in conservation.    Mr. Chairman and members of the subcommittee, thank you for this opportunity to appear before you today. Conservation continues to be a solid investment in our Nation's future. GLRI and other NRCS conservation programs and activities supported by Congress and the administration have demonstrated success to helping farmers, ranchers and private forest owners achieve their production and operational goals in balance with nature, with the natural resource objectives which provide benefits for the rural communities and the Nation as a whole.    I will be very happy to respond to any of your questions at this time.    Thank you.</t>
   </si>
   <si>
@@ -322,9 +307,6 @@
     <t>412489</t>
   </si>
   <si>
-    <t>Reid J. Ribble</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ribble. Good morning, everybody. Thanks for being here. I appreciate the work that you are all working on and doing this.    I happen to live in the Lower Fox River Watershed in northeast Wisconsin. I live on the shoreline, and so I have been able to see in real-time some of the improvements that are actually happening. And, Mr. Korleski, can GLRI funds be awarded to support partnerships between water systems and the agriculture industry?    And by that I mean you have got both point source and nonpoint source issues, and so can there be some combination of partnership there and the funds be used in an equal partnership with them together?</t>
   </si>
   <si>
@@ -409,9 +391,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you, Mr. Chairman.    I have been listening to this very impressive collaboration which apparently has bipartisan support even here. I note that this Great Lakes restoration effort is not authorized, but it has been funded. It appears that the Federal Government is the major actor pressing forward, using its full expertise with working groups and Federal agencies, and one is left to wonder if other areas, and somebody mentioned the Chesapeake, for example, if this kind of collaboration and effort driven by the Federal Government, the EPA and other agencies is occurring in other watersheds or are we hearing a unique effort that has not been exported.    Perhaps Mr. Korleski or Mr. Kramer would be able to speak to that.</t>
   </si>
   <si>
@@ -475,9 +454,6 @@
     <t>408211</t>
   </si>
   <si>
-    <t>Richard M. Nolan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nolan. Thank you, Mr. Chairman.    I want to thank Chairman Gibbs and Ranking Member Napolitano for holding this hearing and thank the witnesses for being here.    I first of all want to commend you all for the work that you are doing and the importance of it. With no pun intended, I do have a couple of areas of concern myself that are unrelated to pollution at the Great Lakes. One of them is what appears to be a rather abrupt shift in programming and in funding, and I will start with you, Mr. Korleski.    You talked about the significance of the unprecedented coordination, and I applaud you for that; the unprecedented results, and I applaud you for that; and you used that word ``unprecedented coordination'' a number of times, and I applaud you for that.    My two concerns with regard to the shift in programming and funding relate--forgive me for being parochial--but to the Duluth area. We are proud to have eliminated our first area of concern on the St. Louis River there, but based on the first 5 years of funding where we had received $4.5 million, there has been a dramatic reduction of almost three-fourths, down to $1.2 million, and based on the first 5 years of work, it had been expected that we would have eliminated all of our areas of concern by 2019, which of course will not happen at this point in time, and that is an area of concern for me, and I would like you to address that.    And then secondly, we have heard from Minnesota Pollution Control Agency and from the Minnesota Department of Natural Resources, and they, like you, were celebrating the unprecedented coordination and collaboration in what I believe they referred to as ``flexible dollars.''    And now I see that funding for staffing will be restricted to project specific, and there is a concern that I have and others have that that will reduce the ability for that kind of collaboration and cooperation between State and county and local on a broader basis.    So if you could address both of those concerns, it would be much appreciated.</t>
   </si>
   <si>
@@ -667,45 +643,30 @@
     <t xml:space="preserve">    Mr. Gibbs. I want to thank the panel for coming in today and sharing your thoughts and expertise, and I think it is in the report and in our hearing today that collaboration, working with all of the different agencies, and the private entities, and, Mr. Gomez, you raised a good point about the hard infrastructure, the mine sewer overflows and all of that issue, and we did put in the WRRDA [Water Resources Reform and Development Act] bill the last time a WIFIA pilot program to try to help supplement the State Revolving Funds to address the hard issues.    But also on the green side of things, as a farmer I can tell you I have seen amazing things happen with buffer strips and grass waterways. The filtration process in nature is really amazing, and so there are some things that can be incorporated that I think make a lot of sense.    I think we know the work that NRCS and all the people who do that on a voluntary basis, working with all of the farmers in the agricultural sector out there, is very important, and moving forward I think we can make some good progress.    So again, thank you for coming in today, and you are excused, and we will bring up the second panel.    Welcome to the House Committee on Transportation and Infrastructure Subcommittee on Water Resources and Environment. Today on our panel 2 we have Mr. Jon Allan. He is the acting chair of the Great Lakes Commission; the Honorable John Dickert, the mayor of the city of Racine, Wisconsin; Mr. Ed Wolking, Jr., the executive director of Great Lakes Metro Chambers Coalition; Mr. Doug Busdeker, director of the Ohio AgriBusiness Association; and Mr. Chad Lord, who is the policy director of Healing Our Waters--Great Lakes Coalition.    Welcome, and, Mr. Allan, the floor is yours.</t>
   </si>
   <si>
-    <t>Allan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allan. Thank you, Chairman Gibbs, Ranking Member Napolitano, for holding this hearing today.    The Great Lakes Restoration Initiative remains a top priority for the Great Lakes Commission and its member States, and we appreciate your oversight and your interest in it.    I serve as director of Michigan's Office of the Great Lakes, but I am here today as chairman of the Great Lakes Commission. I moved from acting to chair just the other day.    The commission was formed by eight States in 1955 to provide a common voice on behalf of the eight States on important Great Lakes issues.    The Great Lakes are a great national treasure and a vital economic interest. They provide us with multiple benefits, but most profoundly they constitute the social and cultural background for nearly 40 million U.S. and Canadian citizens who live within that basin. The lakes are a significant and growing component of our regional and national economies.    Restoring and properly caring for the Great Lakes is a longstanding and a bipartisan priority for our region's leaders, including my boss, Governor Rick Snyder. The focus has continued through Democratic and Republican administrations and enjoys broad-based support among States, tribes, cities, businesses, industries, and with conservation groups.    The commission and its member States have been deeply engaged with the GLRI since its inception. The States actually helped formulate some of the original GLRI focus areas and State staff are supporting many of the projects and actions underway either directly on projects or assisting local partners across each of our States. The States' contributions are vital to the program's success.    The GLRI is a strong and well-managed program that is targeting resources at our most serious problems and areas. It is supported by sound science, and is guided by an action plan with important performance metrics.    The GLRI has stimulated impressive progress over the past 5 years. Noteworthy highlights include actions to thwart bighead and silver carp from invading the Great Lakes, targeted nutrient reductions in watersheds contributing to dangerous algae blooms, and of course, the cleanups of the AOCs we have been talking about.    Really one of the most striking impacts, I think, has been in this area of AOCs, where the GLRI together with State resources and local resources and capacities is enabling communities to clear their legacy contamination and to revitalize degraded waterfronts, transforming them into once again valuable assets.    Last year we were very proud in Michigan that we were able to delist two of those AOCs, and it is really not the Federal Government that I want to think about and the States, but it is 30 years of people in communities that worked hard towards that end. So I want to recognize how important the communities have been. It is important, and they feel the benefit of that progress.    I will say though that it would not have been possible under any circumstance without GLRI to promote that activity. Communities have been waiting for decades for this kind of progress.    While the GLRI predominantly focuses on ecosystem improvements, it is also generating important cultural, social, and economic benefits for the region and the Nation and for our communities and should be recognized and celebrated. Businesses, jobs, wildlife, and people--people--are returning to waterfronts across the region that were once written off, ignored, forgotten about.    Performance metrics really cannot fully capture this evolution as much as we work towards that end, but it is profoundly important for local economies and for our quality of life and really, human well-being.    There is room for improvement, however. You have seen some of that in our written testimony. The commission's specific recommendations have been provided there. However, I will just highlight a few of the following things that we have already touched on, I believe.    First, we really urge improved coordination, consultation, engagement with the States. We really see ourselves as more than just stakeholders. We have sovereign authorities. We have regulatory responsibilities. We have direct connections to communities, and really work hand in hand with them and our Federal partners as well. We see this as collateral partnerships.    Second, we need to sustain State capacity to support an effective Federal-State partnership. We need to ensure that Federal programs are integrated with State priorities and workplans, and we must maintain State capacity towards that end.    Third, we must maintain long-term monitoring to assess progress, success, and as we have heard, to adapt over time.    Finally, we need to better target our nutrient reduction actions to prioritized watersheds that contribute to the formation of harmful algae.    While some of that coordination is directly beyond GLRI, it is in other programs and other Federal programs that can be aligned with both the Federal and the State interests, and the States can play a very unique role in helping that coordination amongst multiple programs.    In conclusion, the commission reiterates two priorities for Congress: sustained funding for Great Lakes restoration. We really need to continue the progress that we have seen, continue the efforts that really have been happening for decades with great success recently; and ultimately to pass formal legislation authorizing the GLRI.    The GLRI has generated real progress, progress that would not have occurred without it and refinements such as the ones in our testimony can build upon that success. The commission and its member States urge Congress to support the program, and we pledge, as States and through the Great Lakes Commission, our continued partnership towards the restoration of the Great Lakes.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gibbs. Mayor, welcome. The floor is yours.</t>
   </si>
   <si>
-    <t>Dickert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Dickert. Mr. Chairman, good morning, and committee members, good morning. Ranking Member Napolitano, good morning, and all of you watching in TV land, good morning.    I am Mayor John Dickert, mayor of Racine, Wisconsin. We are a city between Milwaukee and Chicago on Lake Michigan, about 80,000 folks.    I sit as the vice chair of the Metro Economies Committee with the U.S. Conference of Mayors and also serve on their Mayors Water Council. I was the past chair of the binational Great Lakes and St. Lawrence Cities Initiative, and I serve on Governor Walker's Coastal Management Commission, and was president of the Urban Alliance in Wisconsin.    What does this all mean? It means I am a little familiar with water. I am here to testify for the U.S. Conference of Mayors and the Great Lakes and St. Lawrence Cities Initiative, and I ask that the testimony be inserted in the record.    We did have the best tasting water in 2011. Our Blue Wave Beach has been consistent for 12 years, and USA Today and NRDC [Natural Resources Defense Council] rated us as one of the top beaches in the world. So to say the least, we are committed to water.    We have put our focus on it, and the importance of the Great Lakes obviously cannot be overstated. As we saw with Toledo, 20 years ago they were actually rated as the best tasting water in America.    We just recently had a meeting with them and Mayor Rahm Emanuel, which we held in Chicago because of the problems that they had in shutting down water to 500,000 people. When you don't pay attention to the problems, obviously we can have dramatic effects.    We are obviously seeing that 20 percent of the freshwater in the world is from the Great Lakes, and the Conference of Mayors did a study where only 35 percent of the mayors that responded knew where their water was coming from in 2020. That is a sad fact, but the mayors, we spend a lot of money on our infrastructure and our water. In 2012, we spent $111 billion on our infrastructure to provide those two. Congress, thankfully, spent $2 billion. So we thank you for that.    We recognize the importance of infrastructure when 94 percent of the withdrawals that we are taking are for food, food production, drinking water and energy. That is why GLRI is so incredibly important. You know when you look at nearly 2,700 projects have been done since this started, this is incredible, and I have got to tell you, Mr. Chairman and Ranking Member, thank you for doing this. Thank you for holding this meeting and talking about this. It is important to us.    The Conference obviously supports this. We ask and pray that you break down the silos within the agencies so we can all work together. We have been doing that. We have been officially and effectively using your taxpayer dollars because we know how vital every one of those dollars is.    Closer to home in Racine, we have used GLRI money in a blending of three projects, one to take a beachfront that was so polluted you could not even walk on it it smelled so bad, and turning that beach around making it available to handicapped and seniors. We then blended it with a road project where we took the road and took the runoff into an environmentally friendly, sensitive cleaning, and then cleaned out our harbor and worked with pervious pavement to provide an opening for the largest inland fishing tournament in the world.    We do this blending because we know the dollars are important. We do it because we get peak efficiencies and cost savings by blending all of this together, and I will tell you GLRI has been consistently used to leverage multiple partners in funding because we have redeveloped areas that would have never been redeveloped without these funds.    We rebuild our cities, and we do them efficiently and effectively. We are the ground game that you are talking about. When you are asking who is doing all of the work, well, we are the ones, and we are here because we know the dollars are precious.    Mayors have been responsible to protect the public health and safety of our citizens. That is our job. That is what we do. So we are prepared to break down the silos, work with you, create that efficiency and effectiveness, but also that flexibility.    There is a Native American saying that I wanted to end with and maybe touch on two other points if we have a second, which is that we do not inherit the land from our ancestors. We borrow it from our children. So we ask you to work with us so that we can create a future for our children that is an amazing one.    With your permission, Mr. Chairman and Ranking Member, I would just like to say I know you have talked about brownfields in the past, and you have had testimony on it, and I will tell you that in cities like ours that are industrial, we would not be able to rebuild our cities and create new growth and a new economy without it.    So I have leveraged the brownfields funding in my city for a potential of up to $200 million in growth over the last 5 years.    The last thing is that I know that you are looking at authorization of this, as mentioned earlier. I hope you do do that.    The last piece is that I know that the appropriations language and the EPA section 428 of Senate bill 1645 is regarding discharges, and I will simply leave it at this because my time is over. We can control discharges about as well as we can control weather, and because of that we simply cannot prepare for all of it.    So we are doing our best, and we look forward to that conversation, but I hope you will consider that language carefully.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you.    Mr. Wolking, the floor is yours. Welcome.</t>
   </si>
   <si>
-    <t>Wolking</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wolking. Thank you, Mr. Chairman, Ranking Member Napolitano, members of the subcommittee, thank you for the opportunity to be here today.    I represent the Great Lakes Metro Chambers Coalition, which is a group of Midwestern chambers dedicated to the competitiveness of the Great Lakes trading region, emphasizing Federal actions that will accelerate our region's economic comeback. We have an appreciation of the fundamental role of manufacturing in our region and a tight focus on targeted key issues especially important to this region.    Together with the Great Lakes Manufacturing Council, we have pioneered the notion that the binational Great Lakes region is the third largest economy in the world when you take the combined State and provincial GDPs [gross domestic products] together.    More about our agenda and our issues is in this brochure. I am happy to make that available to the subcommittee with your leave.    At the center of our region is the Great Lakes. It is a fundamental transportation artery, as Chairman Gibbs has noted, but it is also from a different perspective, a defining and precious geographic asset. It is the most important body of freshwater in the world. It is critical to the economic well-being of our region, the social fabric of our region, and the employment of many thousands of people, and it is key to the region's and Nation's future.    A critical consideration is whether you can have growth and economic development and quality environment at the same time, and it used to be that people thought it was a false choice between growth and the environment and you had to choose one or another.    But with technology and processes we have today, we can have both clean, desirable waterways and economic growth, and that is often cited by political, business and community leaders.    Our coalition's Great Lakes-related priorities include what has been mentioned here before a time or two: the Clean Water State Revolving Fund, which is very important to the lakes; prevention of Asian carp; and eradication from the Mississippi and Ohio watersheds which sit on the doorstep of our region, and obviously the Great Lakes Restoration Initiative where we spend much of our time.    The effects of this program, the GLRI, are enormous. More than 2,500 projects that GLRI has been involved in overall; over 5,300 miles of U.S. coastland; and 99 percent of the funds have been obligated.    We have gone over the numbers and the five pillars from other speakers. I will not belabor those, but those pillars are very, very important to the region's future.    Some have tried to pin a specific ROI [return on investment] on this wide-ranging initiative. Our view is that that takes major time. There is a lot of interrelated, intricate, hard to quantify moving parts. It is complicated work, but we are learning. About 10 years ago a Brookings group calculated an ROI that was about 3\\1/2\\ to 1. More recently a Grand Valley State University Muskegon Lake project calculated an ROI of about 6 to 1.    These are systems approaches, however, and they are hard to model, but we would say the real key to all of this is that everybody in our region knows that this is the right thing to do and that if we stay the course, good things, many good things, are going to come of this initiative.    It is bringing activity back, and it is vital to placemaking, which plays such a fundamental role in economic growth and decisions today.    We support the minimum $300 million annual investment, which we think is a sensible level in these challenging times. We heartily support the notion of H.R. 223, the Great Lakes Restoration Improvement Act, for continuity purposes and to really solidify this program for the next 5 or so years.    We are very supportive of the EPA's action plan II and obviously that adds up to being supportive of the fundamental work that this initiative is accomplishing.    Many things are working in this approach. You can see the results. That is an important part of it. The multiagency interdisciplinary approach is key. We can build on this project, this initiative and gain momentum from our results, from learning how to work on this together, and also from engaging more stakeholders.    A question came up, how to do better. Really there are a few things I would recommend on high-level terms and leave the details to the experts.    Number one, a formal authorization of H.R. 223 is very important.    Also, improved consultation, collaboration and coordination both vertically, up and down between Federal and State agencies, and local communities as well as across the range of Federal agencies.    Obviously the measuring and the monitoring systems are key, and the improvements that are coming in action plan II. The data, the stories, making everything accessible to all, and also the Great Lakes Restoration Initiative Action Plan II, also very, very important to the future.    And one final comment, thinking about Canada, it is very, very important to think of our relationship to our neighbor to the north. They are also the other key stakeholder.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you.    Mr. Busdeker, welcome. The floor is yours.</t>
   </si>
   <si>
-    <t>Busdeker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Busdeker. Chairman Gibbs, Ranking Member Napolitano and members of the subcommittee, thank you for this opportunity to be here today.    I am Doug Busdeker of Pemberville, Ohio, in northwest Ohio. I am employed by the Andersons in Maumee, Ohio. I serve as a board member of the Ohio AgriBusiness Association, which represents the Ohio crop nutrient industry, along with grain, feed, seed and crop protection.    The Andersons, Incorporated, my employer, was founded in 1947 by Harold Anderson and built the first grain elevator in Maumee, Ohio. Currently I serve as a senior manager for Northern Farm Centers consisting of Ohio, Indiana and Michigan.    I am pleased to be here today to relate the many positive agricultural activities occurring in the Western Lake Erie Basin. During my career I have engaged with farmers, engaged as an agricultural retailer in the region.    Following the large algal bloom that occurred in 2011 in the Western Lake Erie Basin, many in the agricultural community recognized that agricultural retailers and farmers would need to play a bigger role finding solutions to address water quality challenges. Healthy water, clean, fishable and drinkable water is important to everyone, including all in agriculture. We recognize that agriculture must be part of the solution.    Following the algal bloom of 2011, the Nature Conservancy partnered with several key agricultural retailers in the Western Lake Erie Basin to develop the 4R Nutrient Stewardship Certification Program. This voluntary program was focused on agricultural retailers since agronomists, certified crop advisers, sales personnel, and applicators were recognized as having a strong influence on nutrient use.    Currently 17 agricultural retailers have been certified representing 1.2 million acres of cropland and 3,200 farmers in Ohio and Michigan. Another 10 are awaiting confirmation. Since our program launch on March 18, 2014, a total of 71 agricultural retailers are in the process or have indicated interest in becoming certified.    The 4R Nutrient Certification Program was founded on the Fertilizer Institute's 4R Nutrient Stewardship Principles of the right source, right rate, right time, and right place, and includes social, economic and environmental BMPs [best management practices].    SCS Global, a respected independent audit development firm, was hired to create the 4R Nutrient Stewardship Certification standard. This standard involves 41 different specific criteria that are audited to become certified. Many newer BMPs are already occurring in the Western Lake Erie Basin. Cover crops of all types are growing in popularity. Equipment manufacturers are offering several new tillage options to inject crop nutrients below the surface. Application of gypsum is quickly being adopted, the sequestered phosphorus reducing dissolved reactive phosphorus runoff.    Use of nutrient management plans to precisely determine the required nutritional balance for each crop is common. Commercial fertilizer nutrients are one of the single largest expense for traditional growers, and overuse leads to undesirable financial implications.    Improving soil health resonates with all farmers. There is still much work to be accomplished, but conservation activities advance each year. On April 2, 2015, Ohio Governor John Kasich signed Senate bill 1 into law. Senate bill 1 prohibits manure and fertilizer application when fields are frozen, snow-covered or saturated.    In addition, Ohio Senate bill 150, which requires anyone applying fertilizer on 50 acres or more to become certified, was signed by the Governor in May 2014.    The Ohio AgriBusiness Association fully supported passage of both Senate bill 1 and Senate bill 150.    Research has shown that algal blooms in the Western Basin of Lake Erie are predominantly the result of excess dissolved reactive phosphorus in our rivers and streams. While the exact source and why the increasing amounts of DRP [dissolved reactive phosphorus] is not clearly understood, research has shown that transport from agricultural land plays a significant role.    In the 1970s and 1980s, when Lake Erie was in serious trouble, through research farmers widely adapted new tillage techniques, such as no-till conservation tillage. These practices remain in place today and contribute greatly to a reduction in particulate phosphorus runoff and erosion.    Additional research is needed to identify new BMPs that support a reduction of dissolved reactive phosphorus during periods of extreme rainfall. To that end the fertilizer industry has committed $7 million to establish a 4R research fund. The goal of the fund is to establish sustainability indicators and environmental impacts for implementation of 4R Nutrient Stewardship across America. The fund provides a much needed resource for the focus on measuring and documenting the economic, social and environmental impacts of 4R Nutrient Stewardship.    For the sake of time, I thank you again for this opportunity to provide you with an update on the many positive activities and projects occurring in the Western Basin of Lake Erie as we seek solutions to improve water quality.    We all share the goal of having clean water for many generations to come.    I would be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you.    Mr. Lord, welcome. The floor is yours.</t>
   </si>
   <si>
-    <t>Lord</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lord. Members of the subcommittee, thank you for this opportunity to share our coalition's views with you today.    As you have heard, the Great Lakes are a global resource with millions depending on their clean water. Yet the lakes still suffer from a legacy of toxic pollution, invasive species, harmful algal blooms, and the loss of habitat.    Ten years ago President Bush asked our region to prepare a comprehensive restoration plan to address these and other problems. The Great Lakes Regional Collaboration Strategy was created. Four years later, President Obama proposed the Great Lakes Restoration Initiative that launched our region on a restoration path barely imaginable a decade ago.    Because of the GLRI, we have been able to undertake one of the world's largest freshwater ecosystem restoration projects. Groups across the region are focusing on public-private partnerships to clean up toxic hot spots, restore fish and wildlife habitat, and combat invasive species, partnerships that may never have come together had it not been for the GLRI.    The GLRI's size and scope means it plays a central, albeit not the only, role in successfully restoring and protecting the Great Lakes. The GLRI has accelerated progress and catalyzed critical restoration action that likely would never have happened otherwise.    For example, in Duluth, toxic mud from the bottom of Stryker Bay was removed, making the bay safe to swim in once more.    The city of Marysville, Michigan, replaced a failing seawall with a natural sloping shore and wetland providing valuable fish and wildlife habitat.    The Brickstead Dairy near Green Bay planted cover crops reducing runoff to improve water quality.    How we are accomplishing this is equally as impressive. The GLRI is a model for large, landscape-scale restoration. It ensures the focus remains on the region's highest priorities. It sought to fix the problem GAO identified all the way back in 2003 that there was inadequate coordination among Federal agencies.    Now, the EPA quickly converts the funding it receives for restoration activities by passing it through to other Federal agencies so they can direct it through their existing authorized programs at the region's highest needs. The GAO seemed to recognize these benefits in its most recent report. It found that Federal agencies had allocated almost all the GLRI funds that they had received and that it promotes efficiency and effectiveness by bringing agencies together to agree on common goals to prioritize restoration work.    In short, the Great Lakes Restoration Initiative is working. However, no program is perfect. The GLRI should be continuously reviewed and updated to reflect the changes to the lakes, program deficiencies that have arisen or yet to be addressed, or new threats that have emerged.    So what changes should be made? First, Congress should remove all doubt that the region is on the right path and restoration efforts are on track. Pass H.R. 223, the Great Lakes Restoration Initiative Act. Passing this bill creates greater certainty for the program and allows everyone to focus on getting the job done.    Second, we support even greater targeting of GLRI funds in priority watersheds. However, we expect the GLRI to invest in all five focus areas and to fund activities in these areas as a prescription for recovery.    We also want to see more consistency on when requests for proposals are released each year.    Third, we remain worried that we are not as effective on larger lakewide scales at monitoring, scientific assessment and program project evaluation. Generally speaking, our coalition's members support the integration of monitoring requirements for projects they are undertaking.    Successful monitoring has assisted HOW [Healing Our Waters] groups in documenting short- and long-term project successes. However, it is not clear how comprehensive and systematic monitoring is and how these local efforts add up to a well-monitored, scientifically assessed system.    Since the beginning we have been saying that monitoring requires more GLRI resources than it receives now, and that those funds be available beyond just a couple of years so we can track long-term progress. It would also help if this monitoring stems from a Great Lakes research plan which has yet to be assembled.    Fourth, buy-in from the Great Lakes community is also critical to the overall success of the GLRI. Agencies at every level of Government must talk to the public to help understand what progress has been made, where efforts should focus next, and whether the restoration priorities of the Great Lakes restoration community and, therefore, the GLRI, should change based on those assessments.    Annual engagement of the non-Federal stakeholder community leads to better coordination and better alignment of resources and work at all levels.    To sum up, the Great Lakes restoration investments are paying off for the environment and economy. The Great Lakes Restoration Initiative is Government at its best; agencies working with business, civic and community groups collaboratively on a common goal. The results are impressive and underscore why this national effort needs to be authorized so that we can see the job through to the end. Cutting funding will only make the job harder and more expensive.    Thank you for inviting me to share our views with you. I am happy to answer any questions.</t>
   </si>
   <si>
@@ -904,9 +865,6 @@
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman.    I apologize for the side conversation there.    And thank you, Mr. Rokita.    First off, witnesses, we really appreciate you being here. My first question is for Mr. Allan.    You wrote in your testimony that Federal agencies are not coordinating, consulting and engaging with the States as well as they could or should. What are some ways that the Federal agencies need to treat the States more as coequal partners in implementing the GLRI program?</t>
   </si>
   <si>
@@ -980,9 +938,6 @@
   </si>
   <si>
     <t>412426</t>
-  </si>
-  <si>
-    <t>Todd Rokita</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rokita. I thank the chairman, and I appreciate the witness testimony today and also from the first panel as well.    I give my apologies. Today in three committees and starting yesterday actually where we are getting ready to employ a concept called reconciliation, and the Workforce Committee just did its part of the reconciliation process for this year that originated in the Budget Committee that I am also a part of. So it was a busy day for a lot of us. No excuse, but just want you to know where I was before this.    And even though I was distracted by the gentleman from my left and though I associate with him regularly, I was able to hear a little bit of your testimony, and so I would like to focus my questions I think mostly, and no offense to anyone else, but I want to focus my questions directly to Mr. Lord if that is OK.    Reading your statement last night, you talk about the number of jobs that can be created on the Great Lakes due to these restoration projects. I am from Munster, Indiana, Lake County. So we are right up there, grew up there, and I would like to think I appreciate the cultural value, the economic value, the environmental value of those lakes.    But this committee and this subcommittee is new to me. I want to understand more when you say this will create jobs. Do you mean to imply that these restoration efforts are going to go on in perpetuity or is there some day when this ends, therefore technically making the jobs temporary?    Yes, that is a trick question.</t>
@@ -1453,11 +1408,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1477,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1505,11 +1456,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1531,11 +1480,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1555,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1583,11 +1528,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1607,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1635,11 +1576,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1659,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1687,11 +1624,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1711,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1739,11 +1672,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1763,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1791,11 +1720,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1815,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1843,11 +1768,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1867,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1895,11 +1816,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1919,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1947,11 +1864,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1971,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1999,11 +1912,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2023,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2051,11 +1960,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2075,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2103,11 +2008,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2127,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2155,11 +2056,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2179,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2207,11 +2104,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2231,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2259,11 +2152,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2283,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2311,11 +2200,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2335,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2363,11 +2248,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2387,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2413,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2439,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2465,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2491,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2517,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2543,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2569,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2595,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2621,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2647,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2673,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2699,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2725,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2751,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2777,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2803,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2829,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2855,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2881,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2907,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2933,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2959,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2985,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3011,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3037,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3063,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3089,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3115,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3141,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3167,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3193,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3219,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3245,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3271,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3297,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3323,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3349,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3375,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3401,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3427,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3453,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3479,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3505,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3531,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3557,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3583,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3609,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3635,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3661,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3687,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3715,11 +3496,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3739,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>101</v>
-      </c>
-      <c r="G90" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3765,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3791,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>101</v>
-      </c>
-      <c r="G92" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3817,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3843,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
+        <v>96</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
         <v>101</v>
-      </c>
-      <c r="G94" t="s">
-        <v>102</v>
-      </c>
-      <c r="H94" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3869,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3895,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>101</v>
-      </c>
-      <c r="G96" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3921,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3947,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>101</v>
-      </c>
-      <c r="G98" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3973,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3999,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>101</v>
-      </c>
-      <c r="G100" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4025,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4051,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>101</v>
-      </c>
-      <c r="G102" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4077,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4103,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>101</v>
-      </c>
-      <c r="G104" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4129,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4155,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>101</v>
-      </c>
-      <c r="G106" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4181,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4207,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>101</v>
-      </c>
-      <c r="G108" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4233,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4259,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>101</v>
-      </c>
-      <c r="G110" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4285,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4311,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>101</v>
-      </c>
-      <c r="G112" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4337,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4363,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>101</v>
-      </c>
-      <c r="G114" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4389,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4415,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>101</v>
-      </c>
-      <c r="G116" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4443,11 +4168,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4467,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>130</v>
-      </c>
-      <c r="G118" t="s">
-        <v>131</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4493,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4519,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>130</v>
-      </c>
-      <c r="G120" t="s">
-        <v>131</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4545,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4571,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>130</v>
-      </c>
-      <c r="G122" t="s">
-        <v>131</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4597,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4623,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>130</v>
-      </c>
-      <c r="G124" t="s">
+        <v>124</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
         <v>131</v>
-      </c>
-      <c r="H124" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4649,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4675,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>130</v>
-      </c>
-      <c r="G126" t="s">
-        <v>131</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4701,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4727,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>130</v>
-      </c>
-      <c r="G128" t="s">
-        <v>131</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4753,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4779,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>130</v>
-      </c>
-      <c r="G130" t="s">
-        <v>131</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4805,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4831,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>130</v>
-      </c>
-      <c r="G132" t="s">
-        <v>131</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4857,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4883,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>130</v>
-      </c>
-      <c r="G134" t="s">
-        <v>131</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4909,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4935,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>130</v>
-      </c>
-      <c r="G136" t="s">
-        <v>131</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4963,11 +4648,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4987,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>152</v>
-      </c>
-      <c r="G138" t="s">
-        <v>153</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5013,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5039,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>152</v>
-      </c>
-      <c r="G140" t="s">
-        <v>153</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5065,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5091,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>152</v>
-      </c>
-      <c r="G142" t="s">
-        <v>153</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5117,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5143,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
+        <v>145</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
         <v>152</v>
-      </c>
-      <c r="G144" t="s">
-        <v>153</v>
-      </c>
-      <c r="H144" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5169,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5195,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>152</v>
-      </c>
-      <c r="G146" t="s">
+        <v>145</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
         <v>153</v>
-      </c>
-      <c r="H146" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5223,11 +4888,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5247,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5275,11 +4936,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5299,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5327,11 +4984,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5351,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5379,11 +5032,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5403,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>19</v>
-      </c>
-      <c r="G154" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5431,11 +5080,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5455,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5483,11 +5128,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5507,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5535,11 +5176,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5559,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5587,11 +5224,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5611,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5639,11 +5272,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5663,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5691,11 +5320,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5715,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5743,11 +5368,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5767,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5793,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5819,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5845,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>19</v>
-      </c>
-      <c r="G171" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5871,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5897,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5923,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5949,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5975,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6001,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6027,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6053,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6079,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6105,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6131,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6157,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6183,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6209,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6235,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6261,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>19</v>
-      </c>
-      <c r="G187" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6287,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6313,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6339,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
-      </c>
-      <c r="G190" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6365,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6391,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
-      </c>
-      <c r="G192" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6417,13 +5990,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>19</v>
-      </c>
-      <c r="G193" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6443,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
-      </c>
-      <c r="G194" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6469,13 +6038,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6495,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>14</v>
-      </c>
-      <c r="G196" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6521,13 +6086,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>19</v>
-      </c>
-      <c r="G197" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6547,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
-      </c>
-      <c r="G198" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6573,13 +6134,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>19</v>
-      </c>
-      <c r="G199" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6599,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6625,13 +6182,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>19</v>
-      </c>
-      <c r="G201" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6651,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6677,13 +6230,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6703,13 +6254,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6729,13 +6278,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>19</v>
-      </c>
-      <c r="G205" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6755,13 +6302,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>14</v>
-      </c>
-      <c r="G206" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6783,11 +6328,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6807,13 +6350,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>19</v>
-      </c>
-      <c r="G208" t="s">
-        <v>217</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6835,11 +6376,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6859,13 +6398,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>19</v>
-      </c>
-      <c r="G210" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6887,11 +6424,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6911,13 +6446,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>19</v>
-      </c>
-      <c r="G212" t="s">
-        <v>223</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6939,11 +6472,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6963,13 +6494,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>19</v>
-      </c>
-      <c r="G214" t="s">
-        <v>226</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6991,11 +6520,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7015,13 +6542,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>19</v>
-      </c>
-      <c r="G216" t="s">
-        <v>229</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7043,11 +6568,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7067,13 +6590,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>19</v>
-      </c>
-      <c r="G218" t="s">
-        <v>217</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7095,11 +6616,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7119,13 +6638,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>19</v>
-      </c>
-      <c r="G220" t="s">
-        <v>217</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7147,11 +6664,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7171,13 +6686,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>19</v>
-      </c>
-      <c r="G222" t="s">
-        <v>217</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7199,11 +6712,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>12</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7223,13 +6734,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>19</v>
-      </c>
-      <c r="G224" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7251,11 +6760,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7275,13 +6782,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>19</v>
-      </c>
-      <c r="G226" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7303,11 +6808,9 @@
       <c r="F227" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="s">
-        <v>12</v>
-      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7327,13 +6830,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>19</v>
-      </c>
-      <c r="G228" t="s">
-        <v>226</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7355,11 +6856,9 @@
       <c r="F229" t="s">
         <v>11</v>
       </c>
-      <c r="G229" t="s">
-        <v>12</v>
-      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7379,13 +6878,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>19</v>
-      </c>
-      <c r="G230" t="s">
-        <v>226</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7407,11 +6904,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7431,13 +6926,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>19</v>
-      </c>
-      <c r="G232" t="s">
-        <v>226</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7459,11 +6952,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7483,13 +6974,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>19</v>
-      </c>
-      <c r="G234" t="s">
-        <v>226</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7511,11 +7000,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7535,13 +7022,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>14</v>
-      </c>
-      <c r="G236" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7561,13 +7046,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>19</v>
-      </c>
-      <c r="G237" t="s">
-        <v>226</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7587,13 +7070,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>14</v>
-      </c>
-      <c r="G238" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7613,13 +7094,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>19</v>
-      </c>
-      <c r="G239" t="s">
-        <v>226</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7639,13 +7118,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
-      </c>
-      <c r="G240" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7665,13 +7142,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>19</v>
-      </c>
-      <c r="G241" t="s">
-        <v>226</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7691,13 +7166,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>14</v>
-      </c>
-      <c r="G242" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7717,13 +7190,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>19</v>
-      </c>
-      <c r="G243" t="s">
-        <v>226</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7743,13 +7214,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>14</v>
-      </c>
-      <c r="G244" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7769,13 +7238,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>19</v>
-      </c>
-      <c r="G245" t="s">
-        <v>226</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7795,13 +7262,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>14</v>
-      </c>
-      <c r="G246" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7821,13 +7286,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>19</v>
-      </c>
-      <c r="G247" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7847,13 +7310,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>14</v>
-      </c>
-      <c r="G248" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7873,13 +7334,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>19</v>
-      </c>
-      <c r="G249" t="s">
-        <v>217</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7899,13 +7358,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>14</v>
-      </c>
-      <c r="G250" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7925,13 +7382,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>19</v>
-      </c>
-      <c r="G251" t="s">
-        <v>217</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7951,13 +7406,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G252" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7977,13 +7430,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>19</v>
-      </c>
-      <c r="G253" t="s">
-        <v>217</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8003,13 +7454,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>14</v>
-      </c>
-      <c r="G254" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8029,13 +7478,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>19</v>
-      </c>
-      <c r="G255" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8055,13 +7502,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>14</v>
-      </c>
-      <c r="G256" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8081,13 +7526,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>19</v>
-      </c>
-      <c r="G257" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8107,13 +7550,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>14</v>
-      </c>
-      <c r="G258" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8133,13 +7574,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>19</v>
-      </c>
-      <c r="G259" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8159,13 +7598,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>14</v>
-      </c>
-      <c r="G260" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8185,13 +7622,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>19</v>
-      </c>
-      <c r="G261" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8211,13 +7646,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>14</v>
-      </c>
-      <c r="G262" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8237,13 +7670,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>19</v>
-      </c>
-      <c r="G263" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8263,13 +7694,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>14</v>
-      </c>
-      <c r="G264" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8289,13 +7718,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>19</v>
-      </c>
-      <c r="G265" t="s">
-        <v>229</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8315,13 +7742,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>14</v>
-      </c>
-      <c r="G266" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8341,13 +7766,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>19</v>
-      </c>
-      <c r="G267" t="s">
-        <v>229</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8367,13 +7790,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>14</v>
-      </c>
-      <c r="G268" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8393,13 +7814,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>19</v>
-      </c>
-      <c r="G269" t="s">
-        <v>217</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8419,13 +7838,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>14</v>
-      </c>
-      <c r="G270" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8445,13 +7862,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>19</v>
-      </c>
-      <c r="G271" t="s">
-        <v>217</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8471,13 +7886,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>14</v>
-      </c>
-      <c r="G272" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8499,11 +7912,9 @@
       <c r="F273" t="s">
         <v>11</v>
       </c>
-      <c r="G273" t="s">
-        <v>12</v>
-      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8523,13 +7934,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>101</v>
-      </c>
-      <c r="G274" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8549,13 +7958,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>19</v>
-      </c>
-      <c r="G275" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8575,13 +7982,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>101</v>
-      </c>
-      <c r="G276" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8601,13 +8006,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>19</v>
-      </c>
-      <c r="G277" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8627,13 +8030,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>101</v>
-      </c>
-      <c r="G278" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8653,13 +8054,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>19</v>
-      </c>
-      <c r="G279" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8679,13 +8078,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>101</v>
-      </c>
-      <c r="G280" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8705,13 +8102,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>19</v>
-      </c>
-      <c r="G281" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8733,11 +8128,9 @@
       <c r="F282" t="s">
         <v>11</v>
       </c>
-      <c r="G282" t="s">
-        <v>12</v>
-      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8757,13 +8150,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>295</v>
-      </c>
-      <c r="G283" t="s">
-        <v>296</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8783,13 +8174,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>19</v>
-      </c>
-      <c r="G284" t="s">
-        <v>217</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8809,13 +8198,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>295</v>
-      </c>
-      <c r="G285" t="s">
-        <v>296</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8835,13 +8222,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>19</v>
-      </c>
-      <c r="G286" t="s">
-        <v>217</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8861,13 +8246,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>295</v>
-      </c>
-      <c r="G287" t="s">
-        <v>296</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8887,13 +8270,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>19</v>
-      </c>
-      <c r="G288" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8913,13 +8294,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>295</v>
-      </c>
-      <c r="G289" t="s">
-        <v>296</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8939,13 +8318,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>19</v>
-      </c>
-      <c r="G290" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8965,13 +8342,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>295</v>
-      </c>
-      <c r="G291" t="s">
-        <v>296</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8991,13 +8366,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>19</v>
-      </c>
-      <c r="G292" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9017,13 +8390,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>295</v>
-      </c>
-      <c r="G293" t="s">
-        <v>296</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9043,13 +8414,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>19</v>
-      </c>
-      <c r="G294" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9069,13 +8438,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
+        <v>282</v>
+      </c>
+      <c r="G295" t="s"/>
+      <c r="H295" t="s">
         <v>295</v>
-      </c>
-      <c r="G295" t="s">
-        <v>296</v>
-      </c>
-      <c r="H295" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9095,13 +8462,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>19</v>
-      </c>
-      <c r="G296" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9121,13 +8486,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>295</v>
-      </c>
-      <c r="G297" t="s">
-        <v>296</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9147,13 +8510,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>19</v>
-      </c>
-      <c r="G298" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9173,13 +8534,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>295</v>
-      </c>
-      <c r="G299" t="s">
-        <v>296</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9199,13 +8558,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>19</v>
-      </c>
-      <c r="G300" t="s">
-        <v>220</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9225,13 +8582,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>295</v>
-      </c>
-      <c r="G301" t="s">
-        <v>296</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9251,13 +8606,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>19</v>
-      </c>
-      <c r="G302" t="s">
-        <v>226</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9277,13 +8630,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>295</v>
-      </c>
-      <c r="G303" t="s">
-        <v>296</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9303,13 +8654,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>19</v>
-      </c>
-      <c r="G304" t="s">
-        <v>226</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9329,13 +8678,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>295</v>
-      </c>
-      <c r="G305" t="s">
-        <v>296</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9357,11 +8704,9 @@
       <c r="F306" t="s">
         <v>11</v>
       </c>
-      <c r="G306" t="s">
-        <v>12</v>
-      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9381,13 +8726,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>321</v>
-      </c>
-      <c r="G307" t="s">
-        <v>322</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9407,13 +8750,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>19</v>
-      </c>
-      <c r="G308" t="s">
-        <v>229</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9433,13 +8774,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>321</v>
-      </c>
-      <c r="G309" t="s">
-        <v>322</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9459,13 +8798,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>19</v>
-      </c>
-      <c r="G310" t="s">
-        <v>229</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9485,13 +8822,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>321</v>
-      </c>
-      <c r="G311" t="s">
-        <v>322</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9511,13 +8846,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>19</v>
-      </c>
-      <c r="G312" t="s">
-        <v>229</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9537,13 +8870,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>321</v>
-      </c>
-      <c r="G313" t="s">
-        <v>322</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9563,13 +8894,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>19</v>
-      </c>
-      <c r="G314" t="s">
-        <v>217</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9589,13 +8918,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>321</v>
-      </c>
-      <c r="G315" t="s">
-        <v>322</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9615,13 +8942,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>19</v>
-      </c>
-      <c r="G316" t="s">
-        <v>217</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9641,13 +8966,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>321</v>
-      </c>
-      <c r="G317" t="s">
-        <v>322</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9667,13 +8990,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>19</v>
-      </c>
-      <c r="G318" t="s">
-        <v>223</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9693,13 +9014,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>321</v>
-      </c>
-      <c r="G319" t="s">
-        <v>322</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9721,11 +9040,9 @@
       <c r="F320" t="s">
         <v>11</v>
       </c>
-      <c r="G320" t="s">
-        <v>12</v>
-      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9745,13 +9062,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>19</v>
-      </c>
-      <c r="G321" t="s">
-        <v>223</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9773,11 +9088,9 @@
       <c r="F322" t="s">
         <v>11</v>
       </c>
-      <c r="G322" t="s">
-        <v>12</v>
-      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9797,13 +9110,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>14</v>
-      </c>
-      <c r="G323" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9823,13 +9134,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>19</v>
-      </c>
-      <c r="G324" t="s">
-        <v>229</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9849,13 +9158,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>14</v>
-      </c>
-      <c r="G325" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9875,13 +9182,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>19</v>
-      </c>
-      <c r="G326" t="s">
-        <v>229</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9901,13 +9206,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>14</v>
-      </c>
-      <c r="G327" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9927,13 +9230,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>19</v>
-      </c>
-      <c r="G328" t="s">
-        <v>229</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9953,13 +9254,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>14</v>
-      </c>
-      <c r="G329" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9981,11 +9280,9 @@
       <c r="F330" t="s">
         <v>11</v>
       </c>
-      <c r="G330" t="s">
-        <v>12</v>
-      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
